--- a/Sheet1hrms.xlsx
+++ b/Sheet1hrms.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Gil\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>USER STORY</t>
   </si>
@@ -35,15 +35,6 @@
     <t>SUB FEATURES</t>
   </si>
   <si>
-    <t>REALEASE 1</t>
-  </si>
-  <si>
-    <t>Release 2</t>
-  </si>
-  <si>
-    <t>Sl.No</t>
-  </si>
-  <si>
     <t>User Panel</t>
   </si>
   <si>
@@ -53,9 +44,6 @@
     <t>Login</t>
   </si>
   <si>
-    <t>admin</t>
-  </si>
-  <si>
     <t>Room Management</t>
   </si>
   <si>
@@ -68,10 +56,79 @@
     <t>Booking Management</t>
   </si>
   <si>
-    <t>Room search</t>
-  </si>
-  <si>
-    <t>Payment Gateaway</t>
+    <t>RELEASE 1</t>
+  </si>
+  <si>
+    <t>RELEASE 2</t>
+  </si>
+  <si>
+    <t>SL.No</t>
+  </si>
+  <si>
+    <t>Payment Gateway</t>
+  </si>
+  <si>
+    <t>HOTEL RESERVATION &amp; MANAGEMENT SYSTEM</t>
+  </si>
+  <si>
+    <t>Social Media Buttons</t>
+  </si>
+  <si>
+    <t>Manage online Payment</t>
+  </si>
+  <si>
+    <t>Social media icon links</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admin </t>
+  </si>
+  <si>
+    <t>Room search &amp; Booking</t>
+  </si>
+  <si>
+    <t>Creating icons</t>
+  </si>
+  <si>
+    <t>Linking to respective social medias</t>
+  </si>
+  <si>
+    <t>Form creation</t>
+  </si>
+  <si>
+    <t>Database  connection</t>
+  </si>
+  <si>
+    <t>User Details form creation</t>
+  </si>
+  <si>
+    <t>Payment Integration</t>
+  </si>
+  <si>
+    <t>User Profile</t>
+  </si>
+  <si>
+    <t>Add or delete user</t>
+  </si>
+  <si>
+    <t>calender management</t>
+  </si>
+  <si>
+    <t>Display booked dates</t>
+  </si>
+  <si>
+    <t>Search Box</t>
+  </si>
+  <si>
+    <t>Booking Integration</t>
+  </si>
+  <si>
+    <t>Form Design</t>
+  </si>
+  <si>
+    <t>Add content</t>
+  </si>
+  <si>
+    <t>Add or delete room</t>
   </si>
 </sst>
 </file>
@@ -82,7 +139,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-[$£-809]* #,##0.00_-;\-[$£-809]* #,##0.00_-;_-[$£-809]* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,13 +162,65 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -127,19 +236,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -175,6 +300,11 @@
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF99FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -449,114 +579,193 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D2:R18"/>
+  <dimension ref="C2:R20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="21.140625" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="24" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="33.28515625" customWidth="1"/>
+    <col min="11" max="11" width="33.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="I2" s="4" t="s">
+    <row r="2" spans="3:18" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="G2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
     </row>
-    <row r="5" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="D4" s="5"/>
+      <c r="E4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+    </row>
+    <row r="5" spans="3:18" x14ac:dyDescent="0.25">
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D6" t="s">
+    <row r="6" spans="3:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C6" s="7"/>
+      <c r="D6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="12"/>
+      <c r="K6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+    </row>
+    <row r="8" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="G9" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" t="s">
+      <c r="I9" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="G10" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="D13" s="4">
         <v>2</v>
       </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="M6" s="3" t="s">
+      <c r="E13" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" s="17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="G14" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="G15" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="K15" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="G16" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="K16" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D18" s="4">
         <v>3</v>
       </c>
-      <c r="N6" s="3"/>
-      <c r="Q6" s="3" t="s">
+      <c r="E18" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="K18" s="17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D20" s="4">
         <v>4</v>
       </c>
-      <c r="R6" s="3"/>
-    </row>
-    <row r="8" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="G9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="G10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D13">
-        <v>2</v>
-      </c>
-      <c r="E13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="G14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="G16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D18">
-        <v>3</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="E20" s="13" t="s">
         <v>15</v>
       </c>
+      <c r="G20" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" s="17" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="Q6:R6"/>
+  <mergeCells count="1">
+    <mergeCell ref="G2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
